--- a/tests/diffusivities/diffusivities.xlsx
+++ b/tests/diffusivities/diffusivities.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25720" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bubble diff" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>BUCK</t>
   </si>
@@ -58,6 +59,30 @@
   </si>
   <si>
     <t>R or k</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>cm^5</t>
+  </si>
+  <si>
+    <t>um^5</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Qb</t>
+  </si>
+  <si>
+    <t>J/mol</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -109,8 +134,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,7 +204,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,6 +235,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +266,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +599,7 @@
   <dimension ref="C2:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1188,4 +1217,100 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>8.3144600000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1900000000000001E-22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="E5" s="1">
+        <f>E4*100000000000000000000</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>418400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" si="0">$E$5/D10^3*EXP(-$E$6/$E$1/$E$2)</f>
+        <v>7.7197954721823517E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.2873468065725492E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tests/diffusivities/diffusivities.xlsx
+++ b/tests/diffusivities/diffusivities.xlsx
@@ -31,9 +31,6 @@
     <t>% diff</t>
   </si>
   <si>
-    <t>D0</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>D0 [cm/s]</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="C2:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -641,13 +641,13 @@
     </row>
     <row r="6" spans="3:16">
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="7" spans="3:16">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>8.3143999999999991</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="8" spans="3:16">
       <c r="C8" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>30000000000</v>
+        <v>30000000</v>
       </c>
       <c r="E8" s="1">
         <v>712000000000</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="9" spans="3:16">
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>355000</v>
@@ -743,34 +743,34 @@
     </row>
     <row r="18" spans="3:14">
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -779,7 +779,7 @@
       </c>
       <c r="D19" s="2">
         <f>D$8*EXP(-D$9/D$7/$C19)</f>
-        <v>1.0581784810507207E-5</v>
+        <v>1.0581784810507206E-8</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ref="E19:F28" si="0">E$8*EXP(-E$9/E$7/$C19)</f>
@@ -800,7 +800,7 @@
       </c>
       <c r="J19" s="2">
         <f>ABS(D19-G19)/D19*100</f>
-        <v>2.5659088153989647E-2</v>
+        <v>99925.659088153989</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ref="K19:L19" si="1">ABS(E19-H19)/E19*100</f>
@@ -817,7 +817,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20:D28" si="2">D$8*EXP(-D$9/D$7/$C20)</f>
-        <v>1.7063488720391565E-3</v>
+        <v>1.7063488720391565E-6</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ref="J20:J28" si="3">ABS(D20-G20)/D20*100</f>
-        <v>2.1984247593821494E-2</v>
+        <v>99921.98424759382</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K28" si="4">ABS(E20-H20)/E20*100</f>
@@ -855,7 +855,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>7.7214614553097249E-2</v>
+        <v>7.721461455309725E-5</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
-        <v>1.9265066579487001E-2</v>
+        <v>99919.265066579494</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="4"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="2"/>
-        <v>1.4976593261789137</v>
+        <v>1.4976593261789137E-3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
-        <v>1.7138331568445912E-2</v>
+        <v>99917.138331568451</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="4"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>16.054022126667718</v>
+        <v>1.6054022126667716E-2</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v>1.5434595223123767E-2</v>
+        <v>99915.434595223138</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="4"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>111.80234000268361</v>
+        <v>0.11180234000268362</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
-        <v>1.4006860067521649E-2</v>
+        <v>99914.006860067515</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
-        <v>563.43015921693097</v>
+        <v>0.56343015921693096</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
-        <v>1.2839352293391839E-2</v>
+        <v>99912.839352293377</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="4"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
-        <v>2213.9581665364185</v>
+        <v>2.2139581665364183</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
-        <v>1.1871654467287666E-2</v>
+        <v>99911.871654467293</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="4"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="2"/>
-        <v>7154.7512997430385</v>
+        <v>7.1547512997430385</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
-        <v>1.1009470825205427E-2</v>
+        <v>99911.0094708252</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="4"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="2"/>
-        <v>19774.081648229861</v>
+        <v>19.77408164822986</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
-        <v>1.0257628173193565E-2</v>
+        <v>99910.257628173204</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="4"/>
@@ -1234,7 +1234,7 @@
   <sheetData>
     <row r="1" spans="4:6">
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1">
         <v>8.3144600000000004</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="2" spans="4:6">
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1.1900000000000001E-22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="4:6">
@@ -1265,23 +1265,23 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>418400</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:6">
